--- a/Data_input_300bus.xlsx
+++ b/Data_input_300bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ornl-my.sharepoint.com/personal/y3c_ornl_gov/Documents/My_WorkSpace/Projects/Qubit project 2024/Integrated maintenance scheduling optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{0B53D491-DB9C-CF45-9241-922002272B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1781F6B0-6C98-F142-8083-3F88BA1A11D1}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{0B53D491-DB9C-CF45-9241-922002272B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99EB4548-D6A0-4B4B-B7E4-73D7C94FEDE4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="1620" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen-bus" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -14465,7 +14465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -14484,7 +14484,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>34.668171669017937</v>
+        <v>1386.7268667607175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -14492,7 +14492,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>55.684613692972356</v>
+        <v>2227.3845477188943</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -14500,7 +14500,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>48.266617110440798</v>
+        <v>1930.6646844176319</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -14508,7 +14508,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>41.173715593096482</v>
+        <v>1646.9486237238593</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -14516,7 +14516,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>48.230344093874976</v>
+        <v>1929.213763754999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -14524,7 +14524,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>39.335366525413257</v>
+        <v>1573.4146610165303</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -14532,7 +14532,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>30.940697444782902</v>
+        <v>1237.6278977913162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -14540,7 +14540,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>53.995436373493185</v>
+        <v>2159.8174549397272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -14548,7 +14548,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>32.815515948683263</v>
+        <v>1312.6206379473306</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -14556,7 +14556,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>30.428768582612641</v>
+        <v>1217.1507433045056</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -14564,7 +14564,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>30.470618456250278</v>
+        <v>1218.8247382500113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -14572,7 +14572,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>45.326151085426702</v>
+        <v>1813.0460434170682</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -14580,7 +14580,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>36.53530546949716</v>
+        <v>1461.4122187798864</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -14588,7 +14588,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>37.514561524759259</v>
+        <v>1500.5824609903702</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -14596,7 +14596,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>36.740751409279724</v>
+        <v>1469.6300563711889</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -14604,7 +14604,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>51.854101728979735</v>
+        <v>2074.1640691591892</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -14612,7 +14612,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>30.459170605356562</v>
+        <v>1218.3668242142626</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -14620,7 +14620,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>41.86111138523308</v>
+        <v>1674.4444554093232</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -14628,7 +14628,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>58.521157074200779</v>
+        <v>2340.8462829680311</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -14636,7 +14636,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>57.626821988512262</v>
+        <v>2305.0728795404902</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -14644,7 +14644,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>35.974473461774245</v>
+        <v>1438.9789384709698</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -14652,7 +14652,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>52.101186750419757</v>
+        <v>2084.0474700167902</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -14660,7 +14660,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>51.897505591623201</v>
+        <v>2075.900223664928</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -14668,7 +14668,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>49.259871478541278</v>
+        <v>1970.3948591416511</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -14676,7 +14676,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>55.937447514130206</v>
+        <v>2237.4979005652081</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -14684,7 +14684,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>57.60814493401098</v>
+        <v>2304.3257973604391</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -14692,7 +14692,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>33.23263630146004</v>
+        <v>1329.3054520584017</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -14700,7 +14700,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>42.638485325945943</v>
+        <v>1705.5394130378377</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -14708,7 +14708,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>31.908545489178142</v>
+        <v>1276.3418195671256</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>34.327688200585499</v>
+        <v>1373.1075280234199</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -14724,7 +14724,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>53.202314221190981</v>
+        <v>2128.0925688476391</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -14732,7 +14732,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>30.011043859779203</v>
+        <v>1200.4417543911682</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -14740,7 +14740,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>51.876416831262496</v>
+        <v>2075.0566732504999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -14748,7 +14748,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>45.311305888122199</v>
+        <v>1812.452235524888</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -14756,7 +14756,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>53.235487128165502</v>
+        <v>2129.4194851266202</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -14764,7 +14764,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>43.653090642284177</v>
+        <v>1746.1236256913671</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -14772,7 +14772,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>54.458089492270098</v>
+        <v>2178.3235796908039</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -14780,7 +14780,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>55.684600089738836</v>
+        <v>2227.3840035895537</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -14788,7 +14788,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>48.086861465879522</v>
+        <v>1923.4744586351808</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -14796,7 +14796,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>33.420818927459017</v>
+        <v>1336.8327570983606</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -14804,7 +14804,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>44.77992758989754</v>
+        <v>1791.1971035959016</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -14812,7 +14812,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>53.002908901294965</v>
+        <v>2120.1163560517984</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -14820,7 +14820,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>37.895289533848903</v>
+        <v>1515.8115813539562</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -14828,7 +14828,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>33.173683041316842</v>
+        <v>1326.9473216526737</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -14836,7 +14836,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>34.743761196625542</v>
+        <v>1389.7504478650217</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -14844,7 +14844,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>40.553372160835565</v>
+        <v>1622.1348864334227</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -14852,7 +14852,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>54.779288874150723</v>
+        <v>2191.1715549660289</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -14860,7 +14860,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>57.840636054155276</v>
+        <v>2313.6254421662111</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -14868,7 +14868,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>54.549559213917796</v>
+        <v>2181.9823685567117</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -14876,7 +14876,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>34.865504828687243</v>
+        <v>1394.6201931474898</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -14884,7 +14884,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>40.990786065170461</v>
+        <v>1639.6314426068184</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -14892,7 +14892,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>42.253184088389382</v>
+        <v>1690.1273635355753</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -14900,7 +14900,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>36.980995506286298</v>
+        <v>1479.2398202514519</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -14908,7 +14908,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>45.785013423727619</v>
+        <v>1831.4005369491047</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -14916,7 +14916,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>57.85410285004582</v>
+        <v>2314.1641140018328</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -14924,7 +14924,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>47.941015646729483</v>
+        <v>1917.6406258691793</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -14932,7 +14932,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>56.992646587164622</v>
+        <v>2279.7058634865848</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -14940,7 +14940,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>45.69493915586348</v>
+        <v>1827.7975662345393</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -14948,7 +14948,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>31.189430804836697</v>
+        <v>1247.5772321934678</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -14956,7 +14956,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>49.122158394992944</v>
+        <v>1964.8863357997177</v>
       </c>
     </row>
   </sheetData>
